--- a/Review/2_coding/data/IRR2_coding_sheet.xlsx
+++ b/Review/2_coding/data/IRR2_coding_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\OneDrive - GESIS – Leibniz-Institut für Sozialwissenschaften e.V\Dokumente\Coding Projekte (Git)\Review_Validity\Review\2_coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF8776-BF3C-4F2B-9A1E-0D68AC583011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1784F9BC-3424-4F6B-889C-41DD280213D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kodierungen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -519,10 +519,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Coding
-(1 = same validation step identified)</t>
-  </si>
-  <si>
     <t>Keine Berücksichtigung der einzelnen Validierungsschritte bei Coder 2 (c2)</t>
   </si>
   <si>
@@ -579,15 +575,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gleicher Absatz: C1 hat das ganze 
 </t>
   </si>
@@ -598,6 +585,18 @@
   <si>
     <t xml:space="preserve">C1 hat die Inspektion von besonders "rebel" PMs als Content Validation interpretiert
 </t>
+  </si>
+  <si>
+    <t>Coding IRR 1
+(1 = same validation step identified)</t>
+  </si>
+  <si>
+    <t>Coding IRR 2
+Lukas</t>
+  </si>
+  <si>
+    <t>Coding IRR 3
+David</t>
   </si>
 </sst>
 </file>
@@ -669,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -700,20 +699,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -724,6 +717,12 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -740,19 +739,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E71E5EE-0296-3B41-BDA5-615F34EF7608}" name="Table1" displayName="Table1" ref="A1:J313" totalsRowShown="0">
-  <autoFilter ref="A1:J313" xr:uid="{9E71E5EE-0296-3B41-BDA5-615F34EF7608}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E71E5EE-0296-3B41-BDA5-615F34EF7608}" name="Table1" displayName="Table1" ref="A1:I313" totalsRowShown="0">
+  <autoFilter ref="A1:I313" xr:uid="{9E71E5EE-0296-3B41-BDA5-615F34EF7608}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{F9E68A56-3E1F-7845-9185-66B7B61843F0}" name="id"/>
     <tableColumn id="3" xr3:uid="{4ED402A3-B5D3-7546-8E91-30698B6F7541}" name="question"/>
     <tableColumn id="4" xr3:uid="{440602C5-CC42-9544-982A-53AB4D8957BC}" name="values_c1"/>
     <tableColumn id="5" xr3:uid="{5F0D9C81-0CBC-9B47-8111-4FD788B12062}" name="values_c2"/>
-    <tableColumn id="6" xr3:uid="{B6663A80-DF67-C049-A18F-C5DEB3CBA93A}" name="Coding_x000a_(1 = same validation step identified)"/>
+    <tableColumn id="6" xr3:uid="{B6663A80-DF67-C049-A18F-C5DEB3CBA93A}" name="Coding IRR 1_x000a_(1 = same validation step identified)"/>
     <tableColumn id="7" xr3:uid="{8189A257-9C44-A146-8E7C-AD1CB490AFE7}" name="Note"/>
-    <tableColumn id="1" xr3:uid="{3F501DCE-79B6-49FE-897B-AA09D0B850E0}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{9365B4F7-0D93-4D92-8A0E-8EEDCA7615F6}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{4F97D599-8626-44C4-89F2-1A1AB18A927A}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{73186C10-2850-47A4-A45A-F337C9344214}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3F501DCE-79B6-49FE-897B-AA09D0B850E0}" name="Coding IRR 2_x000a_Lukas" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9365B4F7-0D93-4D92-8A0E-8EEDCA7615F6}" name="Coding IRR 3_x000a_David" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{B70565F3-B98D-444A-9C28-1CA99E7A9539}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,7 +766,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{30473E7E-7B4D-4F85-80F7-B08B68CBB726}" name="Table2" displayName="Table2" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{30473E7E-7B4D-4F85-80F7-B08B68CBB726}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08478E00-A559-4CF6-924B-988FED01154B}" name="Paper" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{08478E00-A559-4CF6-924B-988FED01154B}" name="Paper" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{740A22A5-D73E-4F96-B092-92AE2FA13FAB}" name="# Übereinstimmungen"/>
     <tableColumn id="3" xr3:uid="{381C7FD2-232F-493F-B51D-A8E080D6BB2C}" name="#einseitig"/>
   </tableColumns>
@@ -1067,24 +1071,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J313"/>
+  <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="1"/>
     <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="93.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="102.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="60.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,25 +1104,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>175</v>
+      <c r="G1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1154,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1165,8 +1168,17 @@
         <v>45</v>
       </c>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1197,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1227,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1242,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1261,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1291,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1306,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="348" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1325,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1355,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1370,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1417,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1431,10 +1443,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1479,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1493,10 +1505,10 @@
         <v>#N/A</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1541,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1555,10 +1567,10 @@
         <v>#N/A</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1603,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1617,10 +1629,10 @@
         <v>#N/A</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1693,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1723,8 +1735,20 @@
       <c r="D40" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +1832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -1825,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -1845,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -1858,8 +1882,17 @@
       <c r="D49" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1976,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1960,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +2010,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1990,8 +2023,17 @@
       <c r="D58" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2022,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2082,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -2054,8 +2096,17 @@
         <v>62</v>
       </c>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -2083,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2151,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2113,8 +2164,17 @@
       <c r="D66" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2129,7 +2189,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -2146,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -2163,7 +2223,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -2176,8 +2236,18 @@
       <c r="D70" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="12"/>
+    </row>
+    <row r="71" spans="1:15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2303,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2317,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>9</v>
       </c>
@@ -2261,7 +2331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2275,7 +2345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>9</v>
       </c>
@@ -2289,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +2373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>9</v>
       </c>
@@ -2314,7 +2384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2326,7 +2396,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>9</v>
       </c>
@@ -2343,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
@@ -2357,7 +2427,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -2370,8 +2440,17 @@
       <c r="D84" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
@@ -2399,7 +2478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
@@ -2413,7 +2492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2506,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2441,7 +2520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
@@ -2483,7 +2562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2497,7 +2576,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>9</v>
       </c>
@@ -2525,7 +2604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
@@ -2567,10 +2646,10 @@
         <v>#N/A</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -2584,7 +2663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -2598,7 +2677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -2612,7 +2691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -2626,10 +2705,10 @@
         <v>#N/A</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +2736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +2750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
@@ -2699,7 +2778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -2713,7 +2792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -2755,7 +2834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -2769,7 +2848,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2783,7 +2862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -2811,7 +2890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2904,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -2839,7 +2918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
@@ -2853,7 +2932,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -2867,7 +2946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +2960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -2895,7 +2974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +3005,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>11</v>
       </c>
@@ -2940,7 +3019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +3032,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>11</v>
       </c>
@@ -2970,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +3066,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>11</v>
       </c>
@@ -3000,8 +3079,17 @@
       <c r="D128" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +3103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>11</v>
       </c>
@@ -3032,12 +3120,12 @@
         <v>0</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>11</v>
       </c>
@@ -3053,7 +3141,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>11</v>
       </c>
@@ -3069,7 +3157,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -3082,10 +3170,8 @@
       <c r="D133" s="4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>11</v>
       </c>
@@ -3099,10 +3185,10 @@
         <v>#N/A</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -3144,7 +3230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>11</v>
       </c>
@@ -3158,7 +3244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>11</v>
       </c>
@@ -3186,7 +3272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +3300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>11</v>
       </c>
@@ -3228,7 +3314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>11</v>
       </c>
@@ -3242,7 +3328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -3256,7 +3342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -3270,10 +3356,10 @@
         <v>#N/A</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -3301,7 +3387,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3315,7 +3401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -3329,10 +3415,10 @@
         <v>#N/A</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -3346,7 +3432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -3360,7 +3446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -3388,10 +3474,10 @@
         <v>#N/A</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -3405,7 +3491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -3419,7 +3505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3433,7 +3519,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>12</v>
       </c>
@@ -3447,7 +3533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -3461,7 +3547,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
@@ -3475,7 +3561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -3503,7 +3589,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -3517,7 +3603,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
@@ -3531,7 +3617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3545,7 +3631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -3573,7 +3659,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -3587,7 +3673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3601,7 +3687,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="362.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>13</v>
       </c>
@@ -3615,10 +3701,10 @@
         <v>#N/A</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>13</v>
       </c>
@@ -3632,7 +3718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -3660,7 +3746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>13</v>
       </c>
@@ -3674,7 +3760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>13</v>
       </c>
@@ -3688,7 +3774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>13</v>
       </c>
@@ -3702,7 +3788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -3716,7 +3802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>13</v>
       </c>
@@ -3730,7 +3816,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>13</v>
       </c>
@@ -3744,7 +3830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>13</v>
       </c>
@@ -3758,7 +3844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -3772,7 +3858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>13</v>
       </c>
@@ -3786,7 +3872,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>13</v>
       </c>
@@ -3814,7 +3900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>13</v>
       </c>
@@ -3856,7 +3942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>13</v>
       </c>
@@ -3870,7 +3956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -3884,7 +3970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>13</v>
       </c>
@@ -3898,7 +3984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>13</v>
       </c>
@@ -3912,7 +3998,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>13</v>
       </c>
@@ -3926,7 +4012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -3940,7 +4026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="348" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -3954,10 +4040,10 @@
         <v>#N/A</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -3971,7 +4057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -3985,7 +4071,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -3999,7 +4085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -4013,10 +4099,10 @@
         <v>#N/A</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +4116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -4058,7 +4144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -4072,10 +4158,10 @@
         <v>#N/A</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -4089,7 +4175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>14</v>
       </c>
@@ -4103,7 +4189,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -4117,7 +4203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>14</v>
       </c>
@@ -4131,10 +4217,10 @@
         <v>#N/A</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
@@ -4148,7 +4234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>14</v>
       </c>
@@ -4162,7 +4248,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -4176,7 +4262,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +4290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>14</v>
       </c>
@@ -4218,7 +4304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -4232,7 +4318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
@@ -4246,7 +4332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>14</v>
       </c>
@@ -4260,7 +4346,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -4274,7 +4360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -4288,7 +4374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>15</v>
       </c>
@@ -4305,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
@@ -4319,7 +4405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>15</v>
       </c>
@@ -4332,8 +4418,20 @@
       <c r="D220" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E220" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>15</v>
       </c>
@@ -4347,7 +4445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>15</v>
       </c>
@@ -4364,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4476,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>15</v>
       </c>
@@ -4391,8 +4489,17 @@
       <c r="D224" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G224" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -4406,7 +4513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>15</v>
       </c>
@@ -4437,7 +4544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>15</v>
       </c>
@@ -4450,8 +4557,17 @@
       <c r="D228" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G228" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -4466,7 +4582,7 @@
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>15</v>
       </c>
@@ -4483,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>15</v>
       </c>
@@ -4500,7 +4616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>15</v>
       </c>
@@ -4514,7 +4630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -4528,7 +4644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>15</v>
       </c>
@@ -4542,7 +4658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>15</v>
       </c>
@@ -4556,7 +4672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>15</v>
       </c>
@@ -4570,7 +4686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -4584,7 +4700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>15</v>
       </c>
@@ -4612,7 +4728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>15</v>
       </c>
@@ -4626,7 +4742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -4640,7 +4756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
@@ -4654,10 +4770,10 @@
         <v>#N/A</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -4671,7 +4787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -4685,7 +4801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -4699,7 +4815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>16</v>
       </c>
@@ -4713,7 +4829,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -4727,7 +4843,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -4741,7 +4857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>16</v>
       </c>
@@ -4755,7 +4871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -4769,7 +4885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +4899,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -4797,7 +4913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>16</v>
       </c>
@@ -4811,7 +4927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -4825,7 +4941,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>16</v>
       </c>
@@ -4839,7 +4955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
@@ -4853,7 +4969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -4867,7 +4983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +4997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>16</v>
       </c>
@@ -4895,7 +5011,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -4909,7 +5025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -4923,7 +5039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>16</v>
       </c>
@@ -4937,7 +5053,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -4951,7 +5067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>16</v>
       </c>
@@ -4965,7 +5081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -4979,7 +5095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>17</v>
       </c>
@@ -4993,10 +5109,10 @@
         <v>#N/A</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>17</v>
       </c>
@@ -5010,7 +5126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +5140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -5038,7 +5154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>17</v>
       </c>
@@ -5052,7 +5168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>17</v>
       </c>
@@ -5066,7 +5182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>17</v>
       </c>
@@ -5080,7 +5196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -5094,7 +5210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>17</v>
       </c>
@@ -5108,7 +5224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>17</v>
       </c>
@@ -5122,7 +5238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -5150,7 +5266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>17</v>
       </c>
@@ -5164,7 +5280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>17</v>
       </c>
@@ -5178,7 +5294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>17</v>
       </c>
@@ -5192,7 +5308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -5206,7 +5322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>17</v>
       </c>
@@ -5220,7 +5336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>17</v>
       </c>
@@ -5234,7 +5350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>17</v>
       </c>
@@ -5248,7 +5364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -5262,7 +5378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>17</v>
       </c>
@@ -5276,7 +5392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>17</v>
       </c>
@@ -5290,7 +5406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>17</v>
       </c>
@@ -5304,7 +5420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -5318,7 +5434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>18</v>
       </c>
@@ -5332,10 +5448,10 @@
         <v>#N/A</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>18</v>
       </c>
@@ -5349,7 +5465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>18</v>
       </c>
@@ -5363,7 +5479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>18</v>
       </c>
@@ -5377,7 +5493,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>18</v>
       </c>
@@ -5391,10 +5507,10 @@
         <v>#N/A</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>18</v>
       </c>
@@ -5408,7 +5524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>18</v>
       </c>
@@ -5422,7 +5538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -5436,7 +5552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>18</v>
       </c>
@@ -5450,10 +5566,10 @@
         <v>#N/A</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>18</v>
       </c>
@@ -5467,7 +5583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>18</v>
       </c>
@@ -5481,7 +5597,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>18</v>
       </c>
@@ -5495,7 +5611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>18</v>
       </c>
@@ -5509,7 +5625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>18</v>
       </c>
@@ -5523,7 +5639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>18</v>
       </c>
@@ -5537,7 +5653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>18</v>
       </c>
@@ -5551,7 +5667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -5565,7 +5681,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>18</v>
       </c>
@@ -5579,7 +5695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>18</v>
       </c>
@@ -5593,7 +5709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>18</v>
       </c>
@@ -5607,7 +5723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
@@ -5621,7 +5737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>18</v>
       </c>
@@ -5635,7 +5751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>18</v>
       </c>
@@ -5649,7 +5765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>18</v>
       </c>
@@ -5677,7 +5793,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5689,18 +5805,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
